--- a/工作簿3.xlsx
+++ b/工作簿3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PMP\LibbyLV\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16290" windowHeight="6210"/>
+    <workbookView windowWidth="15720" windowHeight="6204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>泰康在线</t>
   </si>
@@ -42,78 +37,71 @@
     <t>优点：直观，分页切换方便，符合Android用户惯用手机自带返回操作建的习惯， 缺点：占用屏幕空间</t>
   </si>
   <si>
-    <t>同左</t>
-  </si>
-  <si>
-    <t>首页页面元素</t>
-  </si>
-  <si>
-    <t>首页左上角的二维码扫描应该给出对于用户的解释，是支付还是其他活动等，另外，主页下方的本月主打实际是把“保险”Tab页的保险商城入口放在主页提供链接，下方是一些热门产品展示，其实感觉这样做有些重复，给用户的感觉有些凌乱，其实只要通过“图片+文字”形式展示热门商品，并成矩阵式或者上下列表式排列，可以让用户觉得很简洁，很方便地浏览产品，首页的产品推荐不易过多，相反可以引入一些保险相关的资讯或者相关专家直播讲座等。另外：关于推出的测评功能，健康百科等可以单独拉出来展示，并展示对应的字内容</t>
-  </si>
-  <si>
-    <t>首页的内容模块排列很清晰，马头说下面的产品推荐以及后面的资讯文章，均是以图片代替大量文字进行展示，同时图片下面配上一句话说明，显得比较简洁</t>
-  </si>
-  <si>
-    <t>产品展示页</t>
+    <t>首页评价和个人建议</t>
+  </si>
+  <si>
+    <t>主页的内容太多，显得有些凌乱，应该突出主要的和特色的内容，比如工具箱应该放在首页显眼的入口处，给用户提示，首页的保险产品展示方式是横向滑动式展示，用户无法一眼看到所有产品，在加上多行产品分类和推广，很容易造成视觉疲劳，其实在首页中花大的空间罗列保险产品其实是一种冗余，可以专挑3-4款热门保险产品展示即可，应该重点突出展示优惠服务的功能，比如“乐享健康”，“卓越理财”，“泰康车险”，这里还要提到一个小问题，就是这三块服务标题右侧均有一个提示链接的箭头，但是点击却无法打开，这就造成了给用户的误导，会以为这是链接板块详细的功能和内容，希望尽快修复这个bug</t>
+  </si>
+  <si>
+    <t>首页的内容模块排列很清晰，马头说下面的产品推荐以及后面的资讯文章，均是以图片代替大量文字进行展示，同时图片下面配上一句话说明，显得比较简洁，不过资讯图片太占据空间，建议缩减资讯排列空间，并排展示。</t>
+  </si>
+  <si>
+    <t>泰康</t>
+  </si>
+  <si>
+    <t>众安</t>
+  </si>
+  <si>
+    <t>产品列表页</t>
   </si>
   <si>
     <t>产品列表展示类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>横排文字描述+高亮凸显保费标签</t>
+  </si>
+  <si>
+    <t>图片+文字描述+保费</t>
   </si>
   <si>
     <t>优点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键信息描述清楚</t>
+  </si>
+  <si>
+    <t>简洁清晰，页面显得很生动</t>
   </si>
   <si>
     <t>缺点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>众安</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片+文字描述+保费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简洁清晰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键信息描述清楚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述不够详细，保障期限，承保年龄等未展示，并且占用屏幕空间（需要刷屏浏览所有产品）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>排版占用屏幕空间，需要刷屏浏览所有产品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述不够详细，保障期限，承保年龄等关键信息未展示，并且占用屏幕空间（需要刷屏浏览所有产品）</t>
   </si>
   <si>
     <t>建议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>横排文字描述+高亮凸显保费标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在产品展示上面，众安显得更加清晰简洁，不过缺少关键信息，需要用户点击进入查看详细说明，泰康则是采用文字描述方式横排列表形式，对于用户了解产品保费，保障期限，承保年龄等信息一目了然；总体建议产品展示背景最好为图片，展示形式排列为矩阵式，每行二列展示产品，图片上说明保费，承保期限，承保年龄等信息，这样占用屏幕空间会减少，用户可以减少刷屏来浏览到多个保险产品的详情。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品展示主要是标题加粗文字描述，产品特色，保障日期，承保年龄，优惠说明和保费高亮显示，总的来说倒是清晰明了，不过产品特色说明很多，占据空间，显得单调乏味，一旦将来产品数量增加这样的H5排版会导致用户频繁刷屏，建议通过矩阵方式，一排展示两个保险产品，每个产品背景为图片，优惠说明文字可以简化，并可以改为艺术字方式展现，这样不会显得单调</t>
+  </si>
+  <si>
+    <t>在产品展示上面，众安显得更加清晰简洁，不过缺少关键信息，需要用户点击进入查看详细说明，总体建议产品展示背景最好为图片，展示形式排列为矩阵式，每行二列展示产品，图片上说明保费，承保期限，承保年龄等信息，这样占用屏幕空间会减少，用户可以减少刷屏来浏览到多个保险产品的详情。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,29 +117,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -174,9 +485,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -184,76 +737,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>543560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>471170</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2474595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="首页">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="首页"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7269480" y="220980"/>
-          <a:ext cx="1332230" cy="2465705"/>
+          <a:off x="7905115" y="250190"/>
+          <a:ext cx="1299210" cy="2407285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -264,40 +855,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>546735</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>103505</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1391920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2420620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 31" descr="Screenshot_2017-08-15-15-19-47-464_com.zhongan.insurance">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图片 31" descr="Screenshot_2017-08-15-15-19-47-464_com.zhongan.insurance"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7284720" y="2755900"/>
-          <a:ext cx="1392555" cy="2458085"/>
+          <a:off x="4184650" y="198755"/>
+          <a:ext cx="1322070" cy="2404745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -308,32 +893,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>408305</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>437515</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>102235</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>593090</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 16" descr="C:\Users\ruofan lv\AppData\Local\Microsoft\Windows\INetCache\Content.Word\Screenshot_2017-08-24-23-11-55-655_cn.tk.online.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图片 16" descr="C:\Users\ruofan lv\AppData\Local\Microsoft\Windows\INetCache\Content.Word\Screenshot_2017-08-24-23-11-55-655_cn.tk.online.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -347,8 +926,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8538845" y="274320"/>
-          <a:ext cx="1374775" cy="2499995"/>
+          <a:off x="9017000" y="2752725"/>
+          <a:ext cx="1373505" cy="2499360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -363,40 +942,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1418590</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1485265</xdr:rowOff>
+      <xdr:rowOff>33655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1096645</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76835</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2409825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="Screenshot_2017-08-24-23-24-53-137_com.zhongan.insurance">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="Screenshot_2017-08-24-23-24-53-137_com.zhongan.insurance"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8324850" y="1668145"/>
-          <a:ext cx="1375410" cy="2527300"/>
+          <a:off x="5533390" y="216535"/>
+          <a:ext cx="1296035" cy="2376170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -407,32 +980,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1200785</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>567267</xdr:rowOff>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2218690</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2100580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D6D748-F714-4276-B7B6-803C9C1B64C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -445,8 +1012,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9572625" y="5891742"/>
-          <a:ext cx="1095374" cy="1947331"/>
+          <a:off x="5315585" y="5548630"/>
+          <a:ext cx="1017905" cy="2088515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -457,32 +1024,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23283</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1133158</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2064808</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA22859-2046-4EC7-895E-A12D0297B71F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -495,8 +1056,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8101012" y="5648325"/>
-          <a:ext cx="1138238" cy="2023533"/>
+          <a:off x="4244340" y="5554980"/>
+          <a:ext cx="1003300" cy="2045970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -507,32 +1068,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7737</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260985</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>742949</xdr:rowOff>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419098</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1261745</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1978660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B39970-F95A-4002-97A3-92AED2CFFCD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -545,8 +1100,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11066262" y="6067424"/>
-          <a:ext cx="1087636" cy="1933575"/>
+          <a:off x="1666875" y="5554980"/>
+          <a:ext cx="1000760" cy="1960245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45085</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2611120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2315845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="taikang2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1450975" y="228600"/>
+          <a:ext cx="2566035" cy="2270125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>118745</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>367030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="zhongan1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9916160" y="549910"/>
+          <a:ext cx="2764155" cy="2412365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1362710</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2423160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2011045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="Screenshot_2017-09-08-16-38-07-182_cn.tk.online"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2768600" y="5589905"/>
+          <a:ext cx="1060450" cy="1957705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -810,137 +1479,136 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="A11:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.462962962963" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="195.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="195.95" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="19.2" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" ht="105.6" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+    <row r="12" ht="166" customHeight="1" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
+    <row r="15" ht="43.2" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="16" ht="132" customHeight="1" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>